--- a/spug_web/public/resource/数据库导入模板.xlsx
+++ b/spug_web/public/resource/数据库导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="12600"/>
+    <workbookView windowWidth="25162" windowHeight="10627"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>实体项目</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="1"/>
+      </rPr>
       <t>业务</t>
     </r>
     <r>
@@ -138,7 +144,7 @@
     <t>root</t>
   </si>
   <si>
-    <t>ALLTosea20181111</t>
+    <t>x</t>
   </si>
   <si>
     <t>金仓数据库</t>
@@ -176,9 +182,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -207,7 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,16 +228,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,6 +258,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -250,39 +289,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,22 +328,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,23 +343,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,187 +371,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,34 +565,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -601,17 +589,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +628,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -656,153 +653,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,7 +1141,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1256,8 +1262,8 @@
       <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2">
-        <v>54321</v>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>

--- a/spug_web/public/resource/数据库导入模板.xlsx
+++ b/spug_web/public/resource/数据库导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25162" windowHeight="10627"/>
+    <workbookView windowWidth="28200" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>实体项目</t>
   </si>
@@ -126,6 +126,18 @@
     <t>备注</t>
   </si>
   <si>
+    <t>硬盘分区</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>关系标记</t>
+  </si>
+  <si>
     <t>东莞市跨境货车司机信息管理系统项目;东莞市疫情防控数据管理平台项目</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
   </si>
   <si>
     <t>例子</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
@@ -183,9 +198,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -213,6 +228,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -226,19 +271,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,89 +287,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -341,9 +294,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,13 +386,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,19 +494,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,37 +524,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,103 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,17 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,21 +603,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +637,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -654,11 +663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,148 +682,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,15 +1153,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.96666666666667" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,42 +1255,54 @@
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2">
@@ -1283,33 +1310,36 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
